--- a/关于Python求职收集整理的资料/Python求职.xlsx
+++ b/关于Python求职收集整理的资料/Python求职.xlsx
@@ -172,10 +172,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>理论了然于心，独立完成该项90%以上的实际操作</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>能够独立或借助资料，完成其大部分实现</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -184,10 +180,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>有一定量的理论储备，能完成部分实现</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -200,6 +192,14 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一定量的理论储备，能完成其基础实现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论了然于心，独立完成该项80%以上的实现</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1062,43 +1062,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1117,6 +1080,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1337,21 +1345,6 @@
     <xf numFmtId="0" fontId="9" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1373,76 +1366,91 @@
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1790,7 +1798,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1802,30 +1810,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="34"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="29" t="s">
         <v>19</v>
       </c>
@@ -1840,7 +1848,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="59">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1849,25 +1857,25 @@
       <c r="C3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="49">
-        <v>0.8</v>
+      <c r="E3" s="40">
+        <v>0</v>
       </c>
       <c r="F3" s="21">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G3" s="21">
         <v>0</v>
       </c>
       <c r="H3" s="22">
         <f>AVERAGE(E3,F3,G3)</f>
-        <v>0.53333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60">
+      <c r="A4" s="50">
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -1876,25 +1884,25 @@
       <c r="C4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="50">
-        <v>0.5</v>
+      <c r="E4" s="41">
+        <v>0</v>
       </c>
       <c r="F4" s="17">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G4" s="17">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H14" si="0">AVERAGE(E4,F4,G4)</f>
-        <v>0.69999999999999984</v>
+        <f t="shared" ref="H4:H15" si="0">AVERAGE(E4,F4,G4)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="59">
+      <c r="A5" s="49">
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1903,25 +1911,25 @@
       <c r="C5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="49">
-        <v>0.4</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0.2</v>
+      <c r="E5" s="41">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
       </c>
       <c r="H5" s="22">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="61">
+      <c r="A6" s="51">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1930,25 +1938,25 @@
       <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="E6" s="41">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
         <v>0</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>0.3666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60">
+      <c r="A7" s="50">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1957,25 +1965,25 @@
       <c r="C7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="52">
-        <v>0.6</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="41">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
         <v>0</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="59">
+      <c r="A8" s="49">
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1984,10 +1992,10 @@
       <c r="C8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="40">
         <v>0</v>
       </c>
       <c r="F8" s="21">
@@ -2002,7 +2010,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="61">
+      <c r="A9" s="51">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -2011,25 +2019,25 @@
       <c r="C9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="51">
-        <v>0.2</v>
+      <c r="E9" s="42">
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="61">
+      <c r="A10" s="51">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2038,10 +2046,10 @@
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="42">
         <v>0</v>
       </c>
       <c r="F10" s="2">
@@ -2056,7 +2064,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60">
+      <c r="A11" s="50">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -2065,10 +2073,10 @@
       <c r="C11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="43">
         <v>0</v>
       </c>
       <c r="F11" s="4">
@@ -2083,7 +2091,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="59">
+      <c r="A12" s="49">
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -2092,10 +2100,10 @@
       <c r="C12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="40">
         <v>0</v>
       </c>
       <c r="F12" s="21">
@@ -2110,7 +2118,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="61">
+      <c r="A13" s="51">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -2119,10 +2127,10 @@
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="42">
         <v>0</v>
       </c>
       <c r="F13" s="2">
@@ -2138,7 +2146,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="61">
+      <c r="A14" s="51">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2147,10 +2155,10 @@
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="42">
         <v>0</v>
       </c>
       <c r="F14" s="2">
@@ -2166,77 +2174,78 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60">
+      <c r="A15" s="50">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="52">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="41">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
         <f>E15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="63">
         <f>AVERAGE(E3:E15)</f>
-        <v>0.2153846153846154</v>
+        <v>0</v>
       </c>
       <c r="F16" s="64">
         <f>AVERAGE(F3:F15)</f>
-        <v>0.30769230769230771</v>
+        <v>0</v>
       </c>
       <c r="G16" s="64">
         <f>AVERAGE(G3:G15)</f>
-        <v>6.9230769230769221E-2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="65">
         <f>AVERAGE(H3:H15)</f>
-        <v>0.19743589743589743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="H18" s="41"/>
+      <c r="A18" s="35"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="34" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2244,7 +2253,7 @@
       <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2252,42 +2261,42 @@
       <c r="C22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>43</v>
+      <c r="D22" s="31" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>44</v>
+      <c r="D23" s="31" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>46</v>
+      <c r="D24" s="31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="37" t="s">
-        <v>45</v>
+      <c r="D25" s="32" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
